--- a/data/input/preprocessing/mechanical/0_deg/Performance_0_PLA.xlsx
+++ b/data/input/preprocessing/mechanical/0_deg/Performance_0_PLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/performance_format/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/input/preprocessing/mechanical/0_deg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C505F4E-64D8-2F4C-B484-10B7F0A658A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACABB29C-07C3-4145-8327-DBC51D883CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="500" windowWidth="16020" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21300" windowHeight="20500" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
   </bookViews>
   <sheets>
     <sheet name="performance_params_0" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Alternative_Param</t>
   </si>
@@ -56,6 +66,12 @@
   </si>
   <si>
     <t>Inversion</t>
+  </si>
+  <si>
+    <t>Optimal</t>
+  </si>
+  <si>
+    <t>Threshold</t>
   </si>
 </sst>
 </file>
@@ -452,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D55A5A-B7EB-8045-ACFE-203E25D14010}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,10 +506,10 @@
         <v>2971</v>
       </c>
       <c r="C2" s="5">
-        <v>2724</v>
+        <v>2836</v>
       </c>
       <c r="D2" s="5">
-        <v>2724</v>
+        <v>2836</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -540,15 +556,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C237CF79-D2F5-0C46-A5AD-D8B7CBCC29E6}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -561,44 +577,50 @@
       <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>2316</v>
       </c>
       <c r="C2" s="7">
-        <v>3200</v>
+        <v>2971</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="7">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="C3" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>0</v>
+        <v>45.7</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
